--- a/data/dataframe/10052.xlsx
+++ b/data/dataframe/10052.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/DataFiles/idis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/jam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4317A24-E369-F64E-98A1-1B0CD6B833EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E13AD667-C7B6-C145-8377-BE90B598AAF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35280" yWindow="4580" windowWidth="30720" windowHeight="17020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="format" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -36,9 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="17">
   <si>
-    <t>col</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
@@ -84,14 +81,17 @@
     <t>h/d</t>
   </si>
   <si>
-    <t>F2h/F2d</t>
+    <t>exp</t>
+  </si>
+  <si>
+    <t>F2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -132,6 +132,12 @@
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -488,7 +494,7 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:M22"/>
+      <selection activeCell="F2" sqref="F2:F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -504,48 +510,48 @@
   <sheetData>
     <row r="1" spans="1:13" ht="29" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="L1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="7">
         <v>0.19500000000000001</v>
@@ -564,10 +570,10 @@
         <v>16</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I2" s="7">
         <v>3.0000000000000001E-3</v>
@@ -590,7 +596,7 @@
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="7">
         <v>0.22500000000000001</v>
@@ -609,10 +615,10 @@
         <v>16</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I3" s="7">
         <v>3.0000000000000001E-3</v>
@@ -635,7 +641,7 @@
     </row>
     <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="7">
         <v>0.255</v>
@@ -654,10 +660,10 @@
         <v>16</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I4" s="7">
         <v>4.0000000000000001E-3</v>
@@ -680,7 +686,7 @@
     </row>
     <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="7">
         <v>0.28499999999999998</v>
@@ -699,10 +705,10 @@
         <v>16</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I5" s="7">
         <v>4.0000000000000001E-3</v>
@@ -725,7 +731,7 @@
     </row>
     <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="7">
         <v>0.315</v>
@@ -744,10 +750,10 @@
         <v>16</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I6" s="7">
         <v>5.0000000000000001E-3</v>
@@ -770,7 +776,7 @@
     </row>
     <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="7">
         <v>0.34499999999999997</v>
@@ -789,10 +795,10 @@
         <v>16</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I7" s="7">
         <v>5.0000000000000001E-3</v>
@@ -815,7 +821,7 @@
     </row>
     <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="7">
         <v>0.375</v>
@@ -834,10 +840,10 @@
         <v>16</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I8" s="7">
         <v>7.0000000000000001E-3</v>
@@ -860,7 +866,7 @@
     </row>
     <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="7">
         <v>0.40500000000000003</v>
@@ -879,10 +885,10 @@
         <v>16</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I9" s="7">
         <v>8.9999999999999993E-3</v>
@@ -905,7 +911,7 @@
     </row>
     <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="7">
         <v>0.435</v>
@@ -924,10 +930,10 @@
         <v>16</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I10" s="7">
         <v>8.9999999999999993E-3</v>
@@ -950,7 +956,7 @@
     </row>
     <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="7">
         <v>0.46500000000000002</v>
@@ -969,10 +975,10 @@
         <v>16</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I11" s="7">
         <v>8.9999999999999993E-3</v>
@@ -995,7 +1001,7 @@
     </row>
     <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" s="7">
         <v>0.495</v>
@@ -1014,10 +1020,10 @@
         <v>16</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I12" s="7">
         <v>8.9999999999999993E-3</v>
@@ -1040,7 +1046,7 @@
     </row>
     <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13" s="7">
         <v>0.52500000000000002</v>
@@ -1059,10 +1065,10 @@
         <v>16</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I13" s="7">
         <v>0.01</v>
@@ -1085,7 +1091,7 @@
     </row>
     <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14" s="7">
         <v>0.55500000000000005</v>
@@ -1104,10 +1110,10 @@
         <v>16</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I14" s="7">
         <v>0.01</v>
@@ -1130,7 +1136,7 @@
     </row>
     <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B15" s="7">
         <v>0.58499999999999996</v>
@@ -1149,10 +1155,10 @@
         <v>16</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I15" s="7">
         <v>0.01</v>
@@ -1175,7 +1181,7 @@
     </row>
     <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B16" s="7">
         <v>0.61499999999999999</v>
@@ -1194,10 +1200,10 @@
         <v>16</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I16" s="7">
         <v>0.01</v>
@@ -1220,7 +1226,7 @@
     </row>
     <row r="17" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B17" s="7">
         <v>0.64500000000000002</v>
@@ -1239,10 +1245,10 @@
         <v>16</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I17" s="7">
         <v>1.0999999999999999E-2</v>
@@ -1265,7 +1271,7 @@
     </row>
     <row r="18" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B18" s="7">
         <v>0.67500000000000004</v>
@@ -1284,10 +1290,10 @@
         <v>16</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I18" s="7">
         <v>1.2E-2</v>
@@ -1310,7 +1316,7 @@
     </row>
     <row r="19" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B19" s="7">
         <v>0.70499999999999996</v>
@@ -1329,10 +1335,10 @@
         <v>16</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I19" s="7">
         <v>1.0999999999999999E-2</v>
@@ -1355,7 +1361,7 @@
     </row>
     <row r="20" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B20" s="7">
         <v>0.73499999999999999</v>
@@ -1374,10 +1380,10 @@
         <v>16</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I20" s="7">
         <v>1.0999999999999999E-2</v>
@@ -1400,7 +1406,7 @@
     </row>
     <row r="21" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B21" s="7">
         <v>0.76500000000000001</v>
@@ -1419,10 +1425,10 @@
         <v>16</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I21" s="7">
         <v>1.0999999999999999E-2</v>
@@ -1445,7 +1451,7 @@
     </row>
     <row r="22" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B22" s="7">
         <v>0.79500000000000004</v>
@@ -1464,10 +1470,10 @@
         <v>16</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I22" s="7">
         <v>1.2999999999999999E-2</v>
@@ -1489,6 +1495,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>

--- a/data/dataframe/10052.xlsx
+++ b/data/dataframe/10052.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/jam/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E13AD667-C7B6-C145-8377-BE90B598AAF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D820E19-DA47-CD4A-BA18-17E08988294F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35280" yWindow="4580" windowWidth="30720" windowHeight="17020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -494,7 +494,7 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F22"/>
+      <selection activeCell="M2" sqref="M2:M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -590,8 +590,8 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="M2">
-        <f>E2*0.008</f>
-        <v>8.3280000000000003E-3</v>
+        <f>E2*0.012</f>
+        <v>1.2492E-2</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -635,8 +635,8 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M22" si="3">E3*0.008</f>
-        <v>8.3359999999999997E-3</v>
+        <f t="shared" ref="M3:M22" si="3">E3*0.012</f>
+        <v>1.2504000000000001E-2</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -681,7 +681,7 @@
       </c>
       <c r="M4">
         <f t="shared" si="3"/>
-        <v>8.3359999999999997E-3</v>
+        <v>1.2504000000000001E-2</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -726,7 +726,7 @@
       </c>
       <c r="M5">
         <f t="shared" si="3"/>
-        <v>8.4000000000000012E-3</v>
+        <v>1.26E-2</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -771,7 +771,7 @@
       </c>
       <c r="M6">
         <f t="shared" si="3"/>
-        <v>8.2959999999999996E-3</v>
+        <v>1.2443999999999998E-2</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -816,7 +816,7 @@
       </c>
       <c r="M7">
         <f t="shared" si="3"/>
-        <v>8.4000000000000012E-3</v>
+        <v>1.26E-2</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -861,7 +861,7 @@
       </c>
       <c r="M8">
         <f t="shared" si="3"/>
-        <v>8.5039999999999994E-3</v>
+        <v>1.2756E-2</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -906,7 +906,7 @@
       </c>
       <c r="M9">
         <f t="shared" si="3"/>
-        <v>8.4239999999999992E-3</v>
+        <v>1.2636E-2</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -951,7 +951,7 @@
       </c>
       <c r="M10">
         <f t="shared" si="3"/>
-        <v>8.2959999999999996E-3</v>
+        <v>1.2443999999999998E-2</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -996,7 +996,7 @@
       </c>
       <c r="M11">
         <f t="shared" si="3"/>
-        <v>8.4239999999999992E-3</v>
+        <v>1.2636E-2</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -1041,7 +1041,7 @@
       </c>
       <c r="M12">
         <f t="shared" si="3"/>
-        <v>8.5920000000000007E-3</v>
+        <v>1.2888000000000002E-2</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -1086,7 +1086,7 @@
       </c>
       <c r="M13">
         <f t="shared" si="3"/>
-        <v>8.6240000000000015E-3</v>
+        <v>1.2936000000000001E-2</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="M14">
         <f t="shared" si="3"/>
-        <v>8.487999999999999E-3</v>
+        <v>1.2732E-2</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -1176,7 +1176,7 @@
       </c>
       <c r="M15">
         <f t="shared" si="3"/>
-        <v>8.4480000000000006E-3</v>
+        <v>1.2672000000000001E-2</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -1221,7 +1221,7 @@
       </c>
       <c r="M16">
         <f t="shared" si="3"/>
-        <v>8.4399999999999996E-3</v>
+        <v>1.2659999999999999E-2</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="M17">
         <f t="shared" si="3"/>
-        <v>8.631999999999999E-3</v>
+        <v>1.2947999999999999E-2</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -1311,7 +1311,7 @@
       </c>
       <c r="M18">
         <f t="shared" si="3"/>
-        <v>8.4239999999999992E-3</v>
+        <v>1.2636E-2</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -1356,7 +1356,7 @@
       </c>
       <c r="M19">
         <f t="shared" si="3"/>
-        <v>8.7520000000000011E-3</v>
+        <v>1.3128000000000001E-2</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -1401,7 +1401,7 @@
       </c>
       <c r="M20">
         <f t="shared" si="3"/>
-        <v>8.7200000000000003E-3</v>
+        <v>1.3080000000000001E-2</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -1446,7 +1446,7 @@
       </c>
       <c r="M21">
         <f t="shared" si="3"/>
-        <v>8.8160000000000009E-3</v>
+        <v>1.3224000000000001E-2</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="M22">
         <f t="shared" si="3"/>
-        <v>8.8240000000000002E-3</v>
+        <v>1.3236E-2</v>
       </c>
     </row>
   </sheetData>
